--- a/biology/Microbiologie/Alternaria/Alternaria.xlsx
+++ b/biology/Microbiologie/Alternaria/Alternaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alternaria est un genre de champignons deutéromycètes de la famille des Pleosporaceae. Ce genre renferme un grand nombre d'espèces (plus de soixante) parasites ou saprophytes.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Alternaria comporte 299 espèces[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alternaria comporte 299 espèces.
 Liste des espèces
-Selon Catalogue of Life                                   (21 août 2017)[3] :
+Selon Catalogue of Life                                   (21 août 2017) :
 Alternaria abietis Tengwall, 1924
 Alternaria abundans (E.G. Simmons) Woudenberg &amp; Crous, 2013
 Alternaria abutilonis (Speg.) Schwarze, 1917
@@ -1072,7 +1088,7 @@
 Alternaria yerbae (Speg.) P. Joly, 1964
 Alternaria zhengzhouensis T.Y. Zhang, 2003
 Alternaria zinniae M.B. Ellis, 1972
-Selon Index Fungorum                                      (21 août 2017)[4] :
+Selon Index Fungorum                                      (21 août 2017) :
 Alternaria abietis Tengwall 1924
 Alternaria abundans (E.G. Simmons) Woudenb. &amp; Crous 2013
 Alternaria abutilonis (Speg.) Schwarze 1917
@@ -1230,7 +1246,7 @@
 Alternaria concatenata Woudenb. &amp; Crous 2013
 Alternaria concentrica (G. Winter) P. Joly 1964
 Alternaria congesta (Bres.) P. Joly 1964
-Selon ITIS      (21 août 2017)[5] :
+Selon ITIS      (21 août 2017) :
 Alternaria alternata (Fries) Keissler
 Alternaria fasciculata (Cooke &amp; Ellis) Jones &amp; Grout
 Alternaria geophila Dasz.
@@ -1266,10 +1282,12 @@
           <t>Incidence en phytopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces d'Alternaria sont responsables de maladies des plantes cultivées ou non. 
-Ces maladies sont parfois regroupées sous le terme d'alternariose. Par exemple Alternaria dauci infecte les feuilles de carottes cultivées, plus ou moins selon les caractéristiques génétiques de la souche en cause, et selon l'espèce de carotte infectée[6].
+Ces maladies sont parfois regroupées sous le terme d'alternariose. Par exemple Alternaria dauci infecte les feuilles de carottes cultivées, plus ou moins selon les caractéristiques génétiques de la souche en cause, et selon l'espèce de carotte infectée.
 </t>
         </is>
       </c>
@@ -1298,11 +1316,13 @@
           <t>Incidence en médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Moisissure atmosphérique impliquée dans des allergies respiratoires.
-L’Alternaria sp. est considéré comme un des agents étiologiques de la phaeohyphomycose[7].
-On trouve aussi l’Alternaria sp. en association avec le Scopulariopsis brevicaulis dans des phaeohyphomycosis cutanées[8].Certains champignons du genre Alternaria (comme d'autres du genre Phialophora...) produisent une paroi enrichie en mélanine, un pigment qui freine aussi la phagocytose par les macrophages[9].
+L’Alternaria sp. est considéré comme un des agents étiologiques de la phaeohyphomycose.
+On trouve aussi l’Alternaria sp. en association avec le Scopulariopsis brevicaulis dans des phaeohyphomycosis cutanées.Certains champignons du genre Alternaria (comme d'autres du genre Phialophora...) produisent une paroi enrichie en mélanine, un pigment qui freine aussi la phagocytose par les macrophages.
 Au dire de[réf. nécessaire] médecins généralistes (04/2006), l'OMS autorise la désensibilisation par voie injectable.
 La désensibilisation par voie orale n'est pas prouvée mais semble agir dans certains cas.
 Dans les lieux de vie, l'alternaria est réputé se développer notamment dans les bacs à plantes d'intérieur.
